--- a/Tests/1/Test_SingleRun6.xlsx
+++ b/Tests/1/Test_SingleRun6.xlsx
@@ -666,8 +666,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -863,7 +863,9 @@
       <c r="B23" s="3">
         <v>17.5</v>
       </c>
-      <c r="C23" s="29"/>
+      <c r="C23" s="29">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B24" s="3">
@@ -1003,8 +1005,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F176" sqref="F176"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G117" sqref="G117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1258,8 +1260,7 @@
         <v>36</v>
       </c>
       <c r="C14" s="17">
-        <f>C196</f>
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="D14" s="17"/>
       <c r="E14" s="16"/>
@@ -1279,7 +1280,7 @@
         <v>37</v>
       </c>
       <c r="C15" s="17">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D15" s="17"/>
       <c r="E15" s="16"/>
@@ -1448,8 +1449,7 @@
         <v>36</v>
       </c>
       <c r="C23" s="17">
-        <f>C291</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
@@ -1639,7 +1639,7 @@
         <v>36</v>
       </c>
       <c r="C32" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
